--- a/medicine/Handicap/Friana_Kwevira/Friana_Kwevira.xlsx
+++ b/medicine/Handicap/Friana_Kwevira/Friana_Kwevira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Friana Kwevira, née le 27 mai 1998 à Nduindui sur l'île Ambae dans l'archipel du Vanuatu, est une athlète handisport ni-Vanuatu[1]. Née sans bras droit, elle concourt dans la catégorie F46[2].
+Friana Kwevira, née le 27 mai 1998 à Nduindui sur l'île Ambae dans l'archipel du Vanuatu, est une athlète handisport ni-Vanuatu. Née sans bras droit, elle concourt dans la catégorie F46.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle commence le para-sport en 2017 après avoir participé à un programme d'identification de talent à Luganville et commence le lancer du javelot au début de 2018[3]. Ce programme est créé par le Comité paralympique du Vanuatu Provincial Outreach &amp; Awareness pour pousser les personnes avec des handicaps à s'investir dans le sport de haut-niveau avec l'aide de AGITOS et du Comité olympique océanien[4].
-En 2019, elle devient l'ambassadrice jeunesse de l'association World Vision International pour lutter contre les violences faites aux femmes au Vanuatu[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle commence le para-sport en 2017 après avoir participé à un programme d'identification de talent à Luganville et commence le lancer du javelot au début de 2018. Ce programme est créé par le Comité paralympique du Vanuatu Provincial Outreach &amp; Awareness pour pousser les personnes avec des handicaps à s'investir dans le sport de haut-niveau avec l'aide de AGITOS et du Comité olympique océanien.
+En 2019, elle devient l'ambassadrice jeunesse de l'association World Vision International pour lutter contre les violences faites aux femmes au Vanuatu.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux Jeux du Commonwealth de 2018 à Gold Coast (Australie), elle remporte la médaille de bronze du lancer de javelot F46 avec un jet à 25,54 m derrière la Galloise Hollie Arnold (record du monde en 44,43 m) et la Néo-Zélandaise Holly Robinson (43,32 m)[6]. C'est la première médaille remportée par le Vanuatu depuis la création des Jeux[7]. Avant les Jeux, elle participe à un camp d'entraînement sous la direction de Jessica Richardson, une Australienne travaillant avec le Comité paralympique du Vanuatu[2].
-Quelques semaines plus tard, aux Championnats mélanésiens, Friana Kwevira remporte la médaille d'or en lancer du poids devant l'Australienne Katelyn Smith[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Jeux du Commonwealth de 2018 à Gold Coast (Australie), elle remporte la médaille de bronze du lancer de javelot F46 avec un jet à 25,54 m derrière la Galloise Hollie Arnold (record du monde en 44,43 m) et la Néo-Zélandaise Holly Robinson (43,32 m). C'est la première médaille remportée par le Vanuatu depuis la création des Jeux. Avant les Jeux, elle participe à un camp d'entraînement sous la direction de Jessica Richardson, une Australienne travaillant avec le Comité paralympique du Vanuatu.
+Quelques semaines plus tard, aux Championnats mélanésiens, Friana Kwevira remporte la médaille d'or en lancer du poids devant l'Australienne Katelyn Smith.
 </t>
         </is>
       </c>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
